--- a/Structure_and_CorrespondenceTable.xlsx
+++ b/Structure_and_CorrespondenceTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denizaycan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchicagoedu-my.sharepoint.com/personal/aycan_uchicago_edu/Documents/Documents/GitHub/python_final_drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0365226-627D-0547-9C77-30790DFAF7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D0365226-627D-0547-9C77-30790DFAF7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AE71D7F-18EF-E54B-832D-E825C5FA8AEB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="6" r:id="rId1"/>
@@ -2063,7 +2063,7 @@
   </sheetPr>
   <dimension ref="B1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3328,7 +3328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F2F094-B8C3-4097-9911-1D757B66BD26}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -8382,209 +8382,12 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>OECDListFormCollapsible</Display>
-  <Edit>OECDListFormCollapsible</Edit>
-  <New>OECDListFormCollapsible</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <OECDProjectMembers xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">
-      <UserInfo>
-        <DisplayName>HASCIC Ivan, ENV/EPI</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>BERTUZZI Carla, ENV/EPI</DisplayName>
-        <AccountId>364</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MIET Sarah, ENV/EPI</DisplayName>
-        <AccountId>88</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CARDENAS RODRIGUEZ Miguel, ENV/EPI</DisplayName>
-        <AccountId>396</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MIGOTTO Mauro, ENV/EPI</DisplayName>
-        <AccountId>387</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GIROUARD Nathalie, ENV/EPI</DisplayName>
-        <AccountId>113</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CLINE-THOMAS Natasha, ENV/EPI</DisplayName>
-        <AccountId>875</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>LAUBINGER Frithjof, ENV/EEI</DisplayName>
-        <AccountId>2153</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SUCHODOLSKI Andrzej, ENV/EPI</DisplayName>
-        <AccountId>3082</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>NACHTIGALL Daniel, ENV/EPI</DisplayName>
-        <AccountId>1987</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>PIZARRO Rodrigo, ENV/EPI</DisplayName>
-        <AccountId>4931</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>AKLILU Abenezer Zeleke, ENV/EPI</DisplayName>
-        <AccountId>4875</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MAES Mikaël, ENV/EPI</DisplayName>
-        <AccountId>4381</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CANO PRENTICE Amy, ENV/EPI</DisplayName>
-        <AccountId>3931</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SERVANT Lydia, ENV/EPI</DisplayName>
-        <AccountId>5059</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MANTE Florian, ENV/EPI</DisplayName>
-        <AccountId>4547</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TSIRANIDOU Maria, ENV/EPI</DisplayName>
-        <AccountId>6025</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CHHUN Bopha, ENV/EPI</DisplayName>
-        <AccountId>3968</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SCADUTO-MENDOLA Gabriella, ENV/EPI</DisplayName>
-        <AccountId>5965</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SIEG Louise, ENV/EPI</DisplayName>
-        <AccountId>6063</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TESNIERE Vladimir, ENV/EPI</DisplayName>
-        <AccountId>6061</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </OECDProjectMembers>
-    <eShareTopicTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Environment</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">e33e3a1e-dd07-4262-b35c-f4cf321092b7</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Indicators</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9a918089-1b0e-44eb-96e5-756dc818f17e</TermId>
-        </TermInfo>
-      </Terms>
-    </eShareTopicTaxHTField0>
-    <OECDProjectManager xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">
-      <UserInfo>
-        <DisplayName>HASCIC Ivan, ENV/EPI</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </OECDProjectManager>
-    <eShareCountryTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eShareCountryTaxHTField0>
-    <OECDProjectLookup xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">66</OECDProjectLookup>
-    <eSharePWBTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2.3.1.1 Data and Indicator Reports and Updating Statistical Databases, Concerning Environment and Resources: five reports and database updates</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">66a2afef-2f5b-4f58-9f3a-048ea9793ae5</TermId>
-        </TermInfo>
-      </Terms>
-    </eSharePWBTaxHTField0>
-    <TaxCatchAll xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">
-      <Value>557</Value>
-      <Value>81</Value>
-      <Value>1469</Value>
-      <Value>169</Value>
-    </TaxCatchAll>
-    <n8655da54a064da182923cf6cbb46907 xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2" xsi:nil="true"/>
-    <OECDMainProject xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">1</OECDMainProject>
-    <g1cb84c392954f02b97ef964d7fd5f94 xmlns="e36e4070-fdd8-494c-ae17-1a8cf14e7707">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g1cb84c392954f02b97ef964d7fd5f94>
-    <eShareKeywordsTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eShareKeywordsTaxHTField0>
-    <a5c695ec21c747a0bdb8a6375755520a xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </a5c695ec21c747a0bdb8a6375755520a>
-    <eShareCommitteeTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Working Party on Environmental Information</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4bc7aef5-592b-49e3-bc1c-956e9750fcef</TermId>
-        </TermInfo>
-      </Terms>
-    </eShareCommitteeTaxHTField0>
-    <OECDTagsCache xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2" xsi:nil="true"/>
-    <OECDAllRelatedUsers xmlns="e36e4070-fdd8-494c-ae17-1a8cf14e7707">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </OECDAllRelatedUsers>
-    <OECDKimBussinessContext xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
-    <OECDCommunityDocumentID xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2" xsi:nil="true"/>
-    <OECDlanguage xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">English</OECDlanguage>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <OECDCommunityDocumentURL xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2" xsi:nil="true"/>
-    <DocumentSetDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <OECDExpirationDate xmlns="e36e4070-fdd8-494c-ae17-1a8cf14e7707" xsi:nil="true"/>
-    <OECDMeetingDate xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
-    <OECDPinnedBy xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </OECDPinnedBy>
-    <OECDYear xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
-    <OECDKimProvenance xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
-    <OECDKimStatus xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39">Draft</OECDKimStatus>
-    <eShareHorizProjTaxHTField0 xmlns="e36e4070-fdd8-494c-ae17-1a8cf14e7707" xsi:nil="true"/>
-    <OECDSharingStatus xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="27ec883c-a62c-444f-a935-fcddb579e39d" ContentTypeId="0x0101008B4DD370EC31429186F3AD49F0D3098F00D44DBCB9EB4F45278CB5C9765BE52995" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9059,13 +8862,210 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="27ec883c-a62c-444f-a935-fcddb579e39d" ContentTypeId="0x0101008B4DD370EC31429186F3AD49F0D3098F00D44DBCB9EB4F45278CB5C9765BE52995" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <OECDProjectMembers xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">
+      <UserInfo>
+        <DisplayName>HASCIC Ivan, ENV/EPI</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>BERTUZZI Carla, ENV/EPI</DisplayName>
+        <AccountId>364</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MIET Sarah, ENV/EPI</DisplayName>
+        <AccountId>88</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>CARDENAS RODRIGUEZ Miguel, ENV/EPI</DisplayName>
+        <AccountId>396</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MIGOTTO Mauro, ENV/EPI</DisplayName>
+        <AccountId>387</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GIROUARD Nathalie, ENV/EPI</DisplayName>
+        <AccountId>113</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>CLINE-THOMAS Natasha, ENV/EPI</DisplayName>
+        <AccountId>875</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>LAUBINGER Frithjof, ENV/EEI</DisplayName>
+        <AccountId>2153</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SUCHODOLSKI Andrzej, ENV/EPI</DisplayName>
+        <AccountId>3082</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>NACHTIGALL Daniel, ENV/EPI</DisplayName>
+        <AccountId>1987</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>PIZARRO Rodrigo, ENV/EPI</DisplayName>
+        <AccountId>4931</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>AKLILU Abenezer Zeleke, ENV/EPI</DisplayName>
+        <AccountId>4875</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MAES Mikaël, ENV/EPI</DisplayName>
+        <AccountId>4381</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>CANO PRENTICE Amy, ENV/EPI</DisplayName>
+        <AccountId>3931</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SERVANT Lydia, ENV/EPI</DisplayName>
+        <AccountId>5059</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MANTE Florian, ENV/EPI</DisplayName>
+        <AccountId>4547</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TSIRANIDOU Maria, ENV/EPI</DisplayName>
+        <AccountId>6025</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>CHHUN Bopha, ENV/EPI</DisplayName>
+        <AccountId>3968</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SCADUTO-MENDOLA Gabriella, ENV/EPI</DisplayName>
+        <AccountId>5965</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SIEG Louise, ENV/EPI</DisplayName>
+        <AccountId>6063</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TESNIERE Vladimir, ENV/EPI</DisplayName>
+        <AccountId>6061</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </OECDProjectMembers>
+    <eShareTopicTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Environment</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">e33e3a1e-dd07-4262-b35c-f4cf321092b7</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Indicators</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9a918089-1b0e-44eb-96e5-756dc818f17e</TermId>
+        </TermInfo>
+      </Terms>
+    </eShareTopicTaxHTField0>
+    <OECDProjectManager xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">
+      <UserInfo>
+        <DisplayName>HASCIC Ivan, ENV/EPI</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </OECDProjectManager>
+    <eShareCountryTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eShareCountryTaxHTField0>
+    <OECDProjectLookup xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">66</OECDProjectLookup>
+    <eSharePWBTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2.3.1.1 Data and Indicator Reports and Updating Statistical Databases, Concerning Environment and Resources: five reports and database updates</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">66a2afef-2f5b-4f58-9f3a-048ea9793ae5</TermId>
+        </TermInfo>
+      </Terms>
+    </eSharePWBTaxHTField0>
+    <TaxCatchAll xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">
+      <Value>557</Value>
+      <Value>81</Value>
+      <Value>1469</Value>
+      <Value>169</Value>
+    </TaxCatchAll>
+    <n8655da54a064da182923cf6cbb46907 xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2" xsi:nil="true"/>
+    <OECDMainProject xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">1</OECDMainProject>
+    <g1cb84c392954f02b97ef964d7fd5f94 xmlns="e36e4070-fdd8-494c-ae17-1a8cf14e7707">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g1cb84c392954f02b97ef964d7fd5f94>
+    <eShareKeywordsTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eShareKeywordsTaxHTField0>
+    <a5c695ec21c747a0bdb8a6375755520a xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </a5c695ec21c747a0bdb8a6375755520a>
+    <eShareCommitteeTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Working Party on Environmental Information</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4bc7aef5-592b-49e3-bc1c-956e9750fcef</TermId>
+        </TermInfo>
+      </Terms>
+    </eShareCommitteeTaxHTField0>
+    <OECDTagsCache xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2" xsi:nil="true"/>
+    <OECDAllRelatedUsers xmlns="e36e4070-fdd8-494c-ae17-1a8cf14e7707">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </OECDAllRelatedUsers>
+    <OECDKimBussinessContext xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
+    <OECDCommunityDocumentID xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2" xsi:nil="true"/>
+    <OECDlanguage xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">English</OECDlanguage>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <OECDCommunityDocumentURL xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2" xsi:nil="true"/>
+    <DocumentSetDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OECDExpirationDate xmlns="e36e4070-fdd8-494c-ae17-1a8cf14e7707" xsi:nil="true"/>
+    <OECDMeetingDate xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
+    <OECDPinnedBy xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </OECDPinnedBy>
+    <OECDYear xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
+    <OECDKimProvenance xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
+    <OECDKimStatus xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39">Draft</OECDKimStatus>
+    <eShareHorizProjTaxHTField0 xmlns="e36e4070-fdd8-494c-ae17-1a8cf14e7707" xsi:nil="true"/>
+    <OECDSharingStatus xmlns="7348197b-4e95-41c6-b270-341eaa4cbbb2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>OECDListFormCollapsible</Display>
+  <Edit>OECDListFormCollapsible</Edit>
+  <New>OECDListFormCollapsible</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9081,31 +9081,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E906AD-52FF-4F07-83C4-670D3E9CCF25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E4652B-5232-4930-913B-DB1C9DC37FCC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67E634D7-2511-4624-9FB8-99C44FD65B42}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A81BC9-B104-429A-B54D-0EA87A826185}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="54c4cd27-f286-408f-9ce0-33c1e0f3ab39"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c9f238dd-bb73-4aef-a7a5-d644ad823e52"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7348197b-4e95-41c6-b270-341eaa4cbbb2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ca82dde9-3436-4d3d-bddd-d31447390034"/>
-    <ds:schemaRef ds:uri="e36e4070-fdd8-494c-ae17-1a8cf14e7707"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9135,17 +9121,31 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A81BC9-B104-429A-B54D-0EA87A826185}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67E634D7-2511-4624-9FB8-99C44FD65B42}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="c9f238dd-bb73-4aef-a7a5-d644ad823e52"/>
+    <ds:schemaRef ds:uri="ca82dde9-3436-4d3d-bddd-d31447390034"/>
+    <ds:schemaRef ds:uri="7348197b-4e95-41c6-b270-341eaa4cbbb2"/>
+    <ds:schemaRef ds:uri="e36e4070-fdd8-494c-ae17-1a8cf14e7707"/>
+    <ds:schemaRef ds:uri="54c4cd27-f286-408f-9ce0-33c1e0f3ab39"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E4652B-5232-4930-913B-DB1C9DC37FCC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E906AD-52FF-4F07-83C4-670D3E9CCF25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
